--- a/pred_ohlcv/54_23/2019-10-14 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-14 XRP ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1197,7 +1197,7 @@
         <v>337</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5521,7 +5521,7 @@
         <v>342</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -5544,7 +5544,7 @@
         <v>342</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -5567,7 +5567,7 @@
         <v>341</v>
       </c>
       <c r="F226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -5590,7 +5590,7 @@
         <v>341</v>
       </c>
       <c r="F227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>341</v>
       </c>
       <c r="F228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -5636,7 +5636,7 @@
         <v>341</v>
       </c>
       <c r="F229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -5659,7 +5659,7 @@
         <v>341</v>
       </c>
       <c r="F230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -5682,7 +5682,7 @@
         <v>341</v>
       </c>
       <c r="F231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -5705,7 +5705,7 @@
         <v>341</v>
       </c>
       <c r="F232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>341</v>
       </c>
       <c r="F237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -5843,7 +5843,7 @@
         <v>342</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -5866,7 +5866,7 @@
         <v>342</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -5889,7 +5889,7 @@
         <v>342</v>
       </c>
       <c r="F240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -5912,7 +5912,7 @@
         <v>342</v>
       </c>
       <c r="F241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -5935,7 +5935,7 @@
         <v>342</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -5981,7 +5981,7 @@
         <v>342</v>
       </c>
       <c r="F244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -6004,7 +6004,7 @@
         <v>341</v>
       </c>
       <c r="F245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -6027,7 +6027,7 @@
         <v>341</v>
       </c>
       <c r="F246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -6050,7 +6050,7 @@
         <v>341</v>
       </c>
       <c r="F247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -6165,7 +6165,7 @@
         <v>343</v>
       </c>
       <c r="F252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -6464,7 +6464,7 @@
         <v>345</v>
       </c>
       <c r="F265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="G443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="G475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="G479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="G569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="G595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="G596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="G597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -14146,7 +14146,7 @@
         <v>341</v>
       </c>
       <c r="F599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -14307,7 +14307,7 @@
         <v>340</v>
       </c>
       <c r="F606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>340</v>
       </c>
       <c r="F607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -14353,7 +14353,7 @@
         <v>340</v>
       </c>
       <c r="F608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -14376,7 +14376,7 @@
         <v>340</v>
       </c>
       <c r="F609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -14399,7 +14399,7 @@
         <v>339</v>
       </c>
       <c r="F610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -14422,7 +14422,7 @@
         <v>339</v>
       </c>
       <c r="F611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>339</v>
       </c>
       <c r="F614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -14514,7 +14514,7 @@
         <v>339</v>
       </c>
       <c r="F615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -14560,7 +14560,7 @@
         <v>339</v>
       </c>
       <c r="F617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -14629,7 +14629,7 @@
         <v>339</v>
       </c>
       <c r="F620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -14652,7 +14652,7 @@
         <v>339</v>
       </c>
       <c r="F621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -14675,7 +14675,7 @@
         <v>340</v>
       </c>
       <c r="F622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -14698,7 +14698,7 @@
         <v>340</v>
       </c>
       <c r="F623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -14721,7 +14721,7 @@
         <v>341</v>
       </c>
       <c r="F624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>340</v>
       </c>
       <c r="F625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -14767,10 +14767,10 @@
         <v>340</v>
       </c>
       <c r="F626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -14790,10 +14790,10 @@
         <v>340</v>
       </c>
       <c r="F627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -14813,10 +14813,10 @@
         <v>341</v>
       </c>
       <c r="F628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="G629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -14882,10 +14882,10 @@
         <v>339</v>
       </c>
       <c r="F631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -14905,7 +14905,7 @@
         <v>340</v>
       </c>
       <c r="F632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -14928,7 +14928,7 @@
         <v>339</v>
       </c>
       <c r="F633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>339</v>
       </c>
       <c r="F634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -14974,7 +14974,7 @@
         <v>339</v>
       </c>
       <c r="F635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -14997,7 +14997,7 @@
         <v>339</v>
       </c>
       <c r="F636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -15020,7 +15020,7 @@
         <v>340</v>
       </c>
       <c r="F637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -15158,7 +15158,7 @@
         <v>339</v>
       </c>
       <c r="F643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -15250,10 +15250,10 @@
         <v>339</v>
       </c>
       <c r="F647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -15273,7 +15273,7 @@
         <v>339</v>
       </c>
       <c r="F648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -15296,7 +15296,7 @@
         <v>338</v>
       </c>
       <c r="F649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -15319,7 +15319,7 @@
         <v>338</v>
       </c>
       <c r="F650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>338</v>
       </c>
       <c r="F654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -15434,7 +15434,7 @@
         <v>338</v>
       </c>
       <c r="F655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -15457,7 +15457,7 @@
         <v>338</v>
       </c>
       <c r="F656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -15480,7 +15480,7 @@
         <v>338</v>
       </c>
       <c r="F657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -15503,7 +15503,7 @@
         <v>339</v>
       </c>
       <c r="F658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -15526,7 +15526,7 @@
         <v>339</v>
       </c>
       <c r="F659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -15549,7 +15549,7 @@
         <v>339</v>
       </c>
       <c r="F660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -15572,7 +15572,7 @@
         <v>339</v>
       </c>
       <c r="F661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -15618,10 +15618,10 @@
         <v>339</v>
       </c>
       <c r="F663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -15641,10 +15641,10 @@
         <v>340</v>
       </c>
       <c r="F664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="G665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="G666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -15710,10 +15710,10 @@
         <v>339</v>
       </c>
       <c r="F667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -15733,10 +15733,10 @@
         <v>339</v>
       </c>
       <c r="F668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -15756,7 +15756,7 @@
         <v>340</v>
       </c>
       <c r="F669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -15779,10 +15779,10 @@
         <v>339</v>
       </c>
       <c r="F670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -15802,10 +15802,10 @@
         <v>339</v>
       </c>
       <c r="F671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -15825,10 +15825,10 @@
         <v>340</v>
       </c>
       <c r="F672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="G673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="G674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -15920,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="G677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="G679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="G682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="G683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -16104,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="G687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="G689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="G690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="G695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="G697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="G698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="G700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="G701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -17024,10 +17024,10 @@
         <v>0</v>
       </c>
       <c r="G724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>